--- a/Data_pembayaran_bulan_05_2024.xlsx
+++ b/Data_pembayaran_bulan_05_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -47,7 +47,13 @@
     <t>BYR002</t>
   </si>
   <si>
-    <t>brody</t>
+    <t>brody12</t>
+  </si>
+  <si>
+    <t>BYR004</t>
+  </si>
+  <si>
+    <t>tes 1236666</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +452,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_pembayaran_bulan_05_2024.xlsx
+++ b/Data_pembayaran_bulan_05_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -47,13 +47,22 @@
     <t>BYR002</t>
   </si>
   <si>
-    <t>brody12</t>
+    <t>brody123</t>
   </si>
   <si>
     <t>BYR004</t>
   </si>
   <si>
     <t>tes 1236666</t>
+  </si>
+  <si>
+    <t>Belum Lunas</t>
+  </si>
+  <si>
+    <t>BYR005</t>
+  </si>
+  <si>
+    <t>gastin alfiansa111</t>
   </si>
 </sst>
 </file>
@@ -61,13 +70,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -92,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +412,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +421,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -466,10 +485,30 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
